--- a/TOPOKKI_APP/OutputFile/BaoCao_Thang_12_2024.xlsx
+++ b/TOPOKKI_APP/OutputFile/BaoCao_Thang_12_2024.xlsx
@@ -14,6 +14,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
+    <t>Doanh thu tháng 12/2024</t>
+  </si>
+  <si>
     <t>Tên bàn</t>
   </si>
   <si>
@@ -26,13 +29,13 @@
     <t>Ngày ra</t>
   </si>
   <si>
+    <t>Tổng doanh thu:</t>
+  </si>
+  <si>
     <t>Bàn 5</t>
   </si>
   <si>
-    <t>19/12/2024 09:59</t>
-  </si>
-  <si>
-    <t>19/12/2024 10:04</t>
+    <t>19/12/2024</t>
   </si>
   <si>
     <t>Bàn 8</t>
@@ -47,12 +50,6 @@
     <t>Bàn 4</t>
   </si>
   <si>
-    <t>19/12/2024 10:09</t>
-  </si>
-  <si>
-    <t>19/12/2024 10:10</t>
-  </si>
-  <si>
     <t>Bàn 12</t>
   </si>
   <si>
@@ -84,18 +81,27 @@
   </si>
   <si>
     <t>Bàn 14</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy HH:mm"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="165" formatCode="#,##0 VND"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -104,12 +110,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,10 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,7 +155,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -147,305 +163,336 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5549043927874" customWidth="1"/>
-    <col min="4" max="4" width="16.5549043927874" customWidth="1"/>
+    <col min="3" max="3" width="11.1152648925781" customWidth="1"/>
+    <col min="4" max="4" width="11.1152648925781" customWidth="1"/>
+    <col min="5" max="5" width="15.4428318568638" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0">
-        <v>315000</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0">
-        <v>405000</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
+      <c r="F3" s="5">
+        <v>4041000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0">
-        <v>360000</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>315000</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>225000</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>405000</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>120000</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>360000</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>150000</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>225000</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>150000</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>120000</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0">
         <v>150000</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0">
         <v>150000</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="0">
         <v>150000</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0">
-        <v>360000</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>150000</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0">
-        <v>45000</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>150000</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0">
-        <v>36000</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>360000</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0">
-        <v>180000</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>45000</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0">
-        <v>225000</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>36000</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="0">
-        <v>225000</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>180000</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0">
         <v>225000</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0">
         <v>225000</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="0">
-        <v>180000</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>225000</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0">
+        <v>225000</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0">
+        <v>180000</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0">
+        <v>45000</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="0">
+        <v>120000</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="0">
-        <v>45000</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <headerFooter/>
 </worksheet>
 </file>